--- a/Sprint-1_bd/SP Medical Group/Modelo Físico.xlsx
+++ b/Sprint-1_bd/SP Medical Group/Modelo Físico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95454e164ec8c975/Desktop/junior senai/Banco-Dados-Relacao/SP Medical Group/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a9320310dbb1e3c/Área de Trabalho/Pastas Senai/Senai_2º_Semestre/Sprint-1_bd/SP Medical Group/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="618" documentId="8_{A1BB2F89-648B-4ACC-9CDD-89BAE6A79E0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BDF6CE58-3FBE-48BC-9554-DFFD4A2EF3F7}"/>
+  <xr:revisionPtr revIDLastSave="622" documentId="8_{A1BB2F89-648B-4ACC-9CDD-89BAE6A79E0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BC402D58-F234-4A69-AC3B-4B67F3BE35CC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="186" xr2:uid="{5F65FA81-D82F-437B-ABA5-E77B39B1830A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="186" xr2:uid="{5F65FA81-D82F-437B-ABA5-E77B39B1830A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5AD67A-B83A-491F-AC60-08CE9FAFADE5}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:M33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
